--- a/source_analyses/es/2012/6_residences/6_residences_source_analysis.xlsx
+++ b/source_analyses/es/2012/6_residences/6_residences_source_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="final_demand" sheetId="4" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>Source: Consumos del Sector Residencial en España Resumen de Información Básica</t>
   </si>
   <si>
-    <t>Downloaded from http://www.idae.es/uploads/documentos/documentos_Documentacion_Basica_Residencial_Unido_c93da537.pdf</t>
-  </si>
-  <si>
     <t>Final energy demand of Residences (from energy balance)</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
     <t>Source: PROYECTO SECH-SPAHOUSEC Análisis del consumo energético del sector residencial en España</t>
   </si>
   <si>
-    <t>Downloaded from http://www.idae.es/index.php/mod.documentos/mem.descarga?file=/documentos_Informe_SPAHOUSEC_ACC_f68291a3.pdf</t>
-  </si>
-  <si>
     <t>The following data is derived from the table on page 51</t>
   </si>
   <si>
@@ -552,6 +546,12 @@
   </si>
   <si>
     <t>Useful demand (calculated)</t>
+  </si>
+  <si>
+    <t>Avialable on http://refman.et-model.com/publications/1885</t>
+  </si>
+  <si>
+    <t>Avialable on http://refman.et-model.com/publications/1886</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1286,6 +1286,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1346,9 +1350,6 @@
     <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1381,8 +1382,11 @@
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="127">
     <cellStyle name="20% - Accent10" xfId="12"/>
     <cellStyle name="20% - Accent11" xfId="13"/>
     <cellStyle name="20% - Accent12" xfId="14"/>
@@ -1468,6 +1472,8 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
@@ -1502,6 +1508,8 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="66" builtinId="5"/>
@@ -2121,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2138,21 +2146,21 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="16" thickBot="1"/>
     <row r="13" spans="2:15" ht="16" thickBot="1">
       <c r="K13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="27">
         <v>648478.29</v>
@@ -2165,20 +2173,20 @@
     </row>
     <row r="15" spans="2:15">
       <c r="K15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="K16" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="30">
         <f>O16*$M$13</f>
@@ -2190,10 +2198,10 @@
     </row>
     <row r="17" spans="11:17">
       <c r="K17" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="30">
         <f t="shared" ref="M17:M21" si="0">O17*$M$13</f>
@@ -2205,10 +2213,10 @@
     </row>
     <row r="18" spans="11:17">
       <c r="K18" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="30">
         <f t="shared" si="0"/>
@@ -2220,10 +2228,10 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="30">
         <f t="shared" si="0"/>
@@ -2235,10 +2243,10 @@
     </row>
     <row r="20" spans="11:17">
       <c r="K20" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="30">
         <f t="shared" si="0"/>
@@ -2250,10 +2258,10 @@
     </row>
     <row r="21" spans="11:17">
       <c r="K21" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="30">
         <f t="shared" si="0"/>
@@ -2265,26 +2273,26 @@
     </row>
     <row r="23" spans="11:17">
       <c r="M23" s="29"/>
-      <c r="O23" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="O23" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="11:17">
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="11:17">
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="11:17">
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3591,7 +3599,7 @@
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3603,80 +3611,80 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="M11" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="M13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="M14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="M15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="M16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="M17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="M18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="M19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="M20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="M21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="32">
         <v>6.0999999999999999E-2</v>
@@ -3684,7 +3692,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="32">
         <f>0.306+0.061</f>
@@ -3693,7 +3701,7 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="32">
         <v>0.11799999999999999</v>
@@ -3701,7 +3709,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="32">
         <v>3.3000000000000002E-2</v>
@@ -3709,7 +3717,7 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="32">
         <v>0.122</v>
@@ -3717,7 +3725,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="32">
         <v>7.3999999999999996E-2</v>
@@ -3725,25 +3733,25 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="32">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="K34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35" s="32">
         <f>0.083+0.107+0.035-I34</f>
         <v>0.16600000000000001</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -3768,7 +3776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3786,144 +3796,144 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="38"/>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="38"/>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="38"/>
+      <c r="B5" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="38"/>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="39"/>
-      <c r="B3" t="s">
+      <c r="C7" s="38"/>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="38"/>
+      <c r="B9" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="39"/>
-      <c r="C4" s="39"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="39"/>
-      <c r="B5" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="39"/>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39" t="s">
+      <c r="C9" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="F7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="39"/>
-      <c r="B9" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="41">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="42">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39" t="s">
+      <c r="C12" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="42">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39" t="s">
+      <c r="C13" s="41">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="42">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39" t="s">
+      <c r="C14" s="41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="42">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>0.31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="43">
+      <c r="C16" s="42">
         <f>SUM(C10:C15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="C19" s="55"/>
+      <c r="C19" s="54"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="C20" s="55"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="22" spans="2:10">
       <c r="F22" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="I22" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="F23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I23">
         <v>74</v>
@@ -3935,10 +3945,10 @@
     </row>
     <row r="24" spans="2:10">
       <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
         <v>152</v>
-      </c>
-      <c r="G24" t="s">
-        <v>154</v>
       </c>
       <c r="I24">
         <v>7730</v>
@@ -3950,10 +3960,10 @@
     </row>
     <row r="25" spans="2:10">
       <c r="F25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I25">
         <v>16704</v>
@@ -3965,10 +3975,10 @@
     </row>
     <row r="26" spans="2:10">
       <c r="F26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I26">
         <v>1079</v>
@@ -3980,15 +3990,15 @@
     </row>
     <row r="27" spans="2:10">
       <c r="F27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H27">
         <v>4417934</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="44">
         <v>15904.562400000001</v>
       </c>
       <c r="J27" s="34">
@@ -3997,7 +4007,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1">
-      <c r="I28" s="47">
+      <c r="I28" s="46">
         <f>SUM(I23:I27)</f>
         <v>41491.562400000003</v>
       </c>
@@ -4007,108 +4017,108 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="I29" s="47"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="2:10" ht="18">
-      <c r="B30" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="2:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B31" s="52" t="s">
+      <c r="B30" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="2:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="53"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="2:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="54"/>
-      <c r="I31" s="47"/>
-    </row>
-    <row r="32" spans="2:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B32" s="52" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="53"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="C33" s="46"/>
+      <c r="D33" s="53"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B34" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="54"/>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="C33" s="47"/>
-      <c r="D33" s="54"/>
-      <c r="I33" s="47"/>
-    </row>
-    <row r="34" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B34" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B35" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="57">
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B35" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="56">
         <f>C10/2+C12/2+C13+C14</f>
         <v>0.58499999999999996</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="58">
         <f>C35/$C$38</f>
         <v>0.89312977099236635</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="53">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B36" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="57">
-        <v>0</v>
-      </c>
-      <c r="D36" s="59">
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B36" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="56">
+        <v>0</v>
+      </c>
+      <c r="D36" s="58">
         <f>C36/$C$38</f>
         <v>0</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="53">
         <v>0.6</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="51">
         <f>D35*E35+D36*E36+D37*E37</f>
         <v>0.58206106870229002</v>
       </c>
-      <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B37" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="57">
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B37" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="56">
         <f>C10/2+C11</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="58">
         <f>C37/$C$38</f>
         <v>0.1068702290076336</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="53">
         <v>0.85</v>
       </c>
-      <c r="I37" s="47"/>
-    </row>
-    <row r="38" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="C38" s="37">
         <f>SUM(C35:C37)</f>
         <v>0.65500000000000003</v>
@@ -4117,191 +4127,191 @@
         <f>SUM(D35:D37)</f>
         <v>1</v>
       </c>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="C39" s="37"/>
       <c r="D39" s="34"/>
-      <c r="I39" s="47"/>
-    </row>
-    <row r="40" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="C40" s="37"/>
       <c r="D40" s="34"/>
-      <c r="I40" s="47"/>
-    </row>
-    <row r="41" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B41" s="52" t="s">
+      <c r="I40" s="46"/>
+    </row>
+    <row r="41" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B41" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B42" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="46"/>
+    </row>
+    <row r="43" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B44" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="46"/>
+    </row>
+    <row r="45" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B45" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="47"/>
-    </row>
-    <row r="42" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B42" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" s="47"/>
-    </row>
-    <row r="43" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="I43" s="47"/>
-    </row>
-    <row r="44" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B44" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="47"/>
-    </row>
-    <row r="45" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B45" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="52">
+      <c r="C45" s="51">
         <f>I24+I25</f>
         <v>24434</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="53">
         <v>0.4</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="59">
         <f>C45*D45</f>
         <v>9773.6</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="51">
         <f>E45/E48</f>
         <v>0.50497225861963857</v>
       </c>
-      <c r="I45" s="47"/>
-    </row>
-    <row r="46" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B46" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="53">
+      <c r="I45" s="46"/>
+    </row>
+    <row r="46" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B46" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="52">
         <f>I27</f>
         <v>15904.562400000001</v>
       </c>
-      <c r="D46" s="54">
+      <c r="D46" s="53">
         <f>G36</f>
         <v>0.58206106870229002</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="59">
         <f t="shared" ref="E46:E47" si="1">C46*D46</f>
         <v>9257.4265877862599</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="51">
         <f>E46/E48</f>
         <v>0.47830314449536726</v>
       </c>
-      <c r="I46" s="47"/>
-    </row>
-    <row r="47" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="B47" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="52">
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="B47" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="51">
         <f>I26</f>
         <v>1079</v>
       </c>
-      <c r="D47" s="54">
+      <c r="D47" s="53">
         <v>0.3</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="59">
         <f t="shared" si="1"/>
         <v>323.7</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="51">
         <f>E47/E48</f>
         <v>1.6724596884993965E-2</v>
       </c>
-      <c r="I47" s="47"/>
-    </row>
-    <row r="48" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="C48" s="47">
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="C48" s="46">
         <f>SUM(C45:C47)</f>
         <v>41417.562400000003</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="46">
+      <c r="D48" s="53"/>
+      <c r="E48" s="45">
         <f>SUM(E45:E47)</f>
         <v>19354.726587786263</v>
       </c>
-      <c r="I48" s="47"/>
-    </row>
-    <row r="49" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="C49" s="47"/>
-      <c r="D49" s="54"/>
-      <c r="I49" s="47"/>
-    </row>
-    <row r="50" spans="2:9" s="52" customFormat="1" ht="15" customHeight="1"/>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="C49" s="46"/>
+      <c r="D49" s="53"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1"/>
     <row r="51" spans="2:9" ht="18">
-      <c r="B51" s="51" t="s">
-        <v>162</v>
+      <c r="B51" s="50" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" s="23"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="47"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50">
+        <v>154</v>
+      </c>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49">
         <f>ROUND(F45,4)</f>
         <v>0.505</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50">
+        <v>155</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49">
         <f>ROUND(D35*$F$46,4)</f>
         <v>0.42720000000000002</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50">
+        <v>156</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49">
         <f>ROUND(D36*$F$46,4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50">
+        <v>157</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49">
         <f>ROUND(D37*$F$46,4)</f>
         <v>5.11E-2</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50">
+        <v>158</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49">
         <f>ROUND(F47,4)</f>
         <v>1.67E-2</v>
       </c>
@@ -4334,7 +4344,7 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4347,44 +4357,44 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="33">
         <v>143008320</v>
@@ -4396,10 +4406,10 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="33">
         <v>105018737</v>
@@ -4411,10 +4421,10 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="33">
         <v>121136021</v>
@@ -4426,10 +4436,10 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="33">
         <v>23360519</v>
@@ -4441,10 +4451,10 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="33">
         <v>196516</v>
@@ -4456,10 +4466,10 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
         <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>121</v>
       </c>
       <c r="D28" s="33">
         <f>SUM(D23:D27)</f>
@@ -4468,34 +4478,34 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
         <v>115</v>
-      </c>
-      <c r="F37" t="s">
-        <v>116</v>
       </c>
       <c r="G37" s="35">
         <f>E23+E24</f>
@@ -4504,13 +4514,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
         <v>117</v>
-      </c>
-      <c r="F38" t="s">
-        <v>118</v>
       </c>
       <c r="G38" s="35">
         <f>E25+E26</f>
@@ -4519,10 +4529,10 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="35">
         <f>E27</f>
